--- a/data_processed/ExampleData.xlsx
+++ b/data_processed/ExampleData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tristan\Documents\Stevens Institute\CPE695\Project\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tristan\Documents\Stevens Institute\CPE695\Project\AI-genre-prediction\data_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483EE80-5243-4EBC-BF2A-520BA6CBCE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EFB562-FB62-4043-A031-A6CB427BF988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6529CB4-8DDE-4FC9-9766-B2D0C1164C9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Desired Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="251">
   <si>
     <t xml:space="preserve">analysis_sample_rate </t>
   </si>
@@ -783,6 +784,12 @@
   </si>
   <si>
     <t>GENRE 3</t>
+  </si>
+  <si>
+    <t>MB Data</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -820,7 +827,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -893,11 +900,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -915,6 +946,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1228,37 +1263,641 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4114ED32-0CD3-46EE-9918-46C768A165F2}">
-  <dimension ref="A1:BB27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599F3483-8C17-4914-8059-43719F69286C}">
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="2">
+        <v>148.03546</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-9.843</v>
+      </c>
+      <c r="K4" s="2">
+        <v>121.274</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="2">
+        <v>177.47546</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-9.6890000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100.07</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="2">
+        <v>233.40362999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.751</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.749</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-9.0129999999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>119.29300000000001</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="2">
+        <v>209.60607999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-4.5010000000000003</v>
+      </c>
+      <c r="K7" s="2">
+        <v>129.738</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="N7" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8">
+        <v>267.70240000000001</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="J8">
+        <v>-9.3230000000000004</v>
+      </c>
+      <c r="K8">
+        <v>147.78200000000001</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.2639999999999998</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9">
+        <v>114.78158999999999</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-17.302</v>
+      </c>
+      <c r="K9">
+        <v>111.78700000000001</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10">
+        <v>189.57015999999999</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.16</v>
+      </c>
+      <c r="J10">
+        <v>-11.641999999999999</v>
+      </c>
+      <c r="K10">
+        <v>101.43</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11">
+        <v>269.81832000000003</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="J11">
+        <v>-13.496</v>
+      </c>
+      <c r="K11">
+        <v>86.643000000000001</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12">
+        <v>266.39627999999999</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="J12">
+        <v>-6.6970000000000001</v>
+      </c>
+      <c r="K12">
+        <v>114.041</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>0.878</v>
+      </c>
+      <c r="N12" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13">
+        <v>218.77506</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="J13">
+        <v>-10.021000000000001</v>
+      </c>
+      <c r="K13">
+        <v>146.76499999999999</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2.125</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4114ED32-0CD3-46EE-9918-46C768A165F2}">
+  <dimension ref="A1:BB27"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1"/>
     <col min="12" max="12" width="27.33203125" customWidth="1"/>
     <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.88671875" customWidth="1"/>
-    <col min="17" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" customWidth="1"/>
-    <col min="20" max="20" width="2.88671875" customWidth="1"/>
-    <col min="22" max="31" width="5.21875" customWidth="1"/>
-    <col min="32" max="32" width="9.88671875" customWidth="1"/>
-    <col min="33" max="33" width="5.21875" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="19.21875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" customWidth="1"/>
+    <col min="20" max="21" width="11.77734375" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" customWidth="1"/>
+    <col min="23" max="23" width="14.21875" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="16.21875" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="30" max="30" width="8.109375" customWidth="1"/>
+    <col min="31" max="31" width="20" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" customWidth="1"/>
+    <col min="33" max="33" width="18.77734375" customWidth="1"/>
     <col min="34" max="34" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="25.6640625" bestFit="1" customWidth="1"/>
@@ -1274,7 +1913,10 @@
     <col min="46" max="46" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.6640625" customWidth="1"/>
+    <col min="50" max="50" width="25.5546875" customWidth="1"/>
     <col min="51" max="51" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.3">

--- a/data_processed/ExampleData.xlsx
+++ b/data_processed/ExampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tristan\Documents\Stevens Institute\CPE695\Project\AI-genre-prediction\data_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EFB562-FB62-4043-A031-A6CB427BF988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB36F7-B4D3-41C5-B1E4-9FF53C463139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6529CB4-8DDE-4FC9-9766-B2D0C1164C9B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="270">
   <si>
     <t xml:space="preserve">analysis_sample_rate </t>
   </si>
@@ -786,10 +786,67 @@
     <t>GENRE 3</t>
   </si>
   <si>
-    <t>MB Data</t>
-  </si>
-  <si>
-    <t>TBD</t>
+    <t>Leave this in h5 format</t>
+  </si>
+  <si>
+    <t>Processed segments_pitches</t>
+  </si>
+  <si>
+    <t>interval1_count</t>
+  </si>
+  <si>
+    <t>interval2_count</t>
+  </si>
+  <si>
+    <t>interval0_count</t>
+  </si>
+  <si>
+    <t>interval3_count</t>
+  </si>
+  <si>
+    <t>interval4_count</t>
+  </si>
+  <si>
+    <t>interval5_count</t>
+  </si>
+  <si>
+    <t>interval6_count</t>
+  </si>
+  <si>
+    <t>interval7_count</t>
+  </si>
+  <si>
+    <t>interval8_count</t>
+  </si>
+  <si>
+    <t>interval9_count</t>
+  </si>
+  <si>
+    <t>interval10_count</t>
+  </si>
+  <si>
+    <t>interval11_count</t>
+  </si>
+  <si>
+    <t>intervaln_count: describes how many times an interval appears</t>
+  </si>
+  <si>
+    <t>Process for calculating interval</t>
+  </si>
+  <si>
+    <t>1. Find highest probability note for each row. Result: column of size = (971, ) containing integer of the index location of highest probability note</t>
+  </si>
+  <si>
+    <t>2. Use the index locations to determine intervals</t>
+  </si>
+  <si>
+    <t>2.1 interval[n] = abs(index [n+1] - index[n])</t>
+  </si>
+  <si>
+    <t>shape = (1, )</t>
+  </si>
+  <si>
+    <t>3. Parse interval array into columns based on how many times each interval appears</t>
   </si>
 </sst>
 </file>
@@ -928,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -949,7 +1006,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599F3483-8C17-4914-8059-43719F69286C}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,15 +1347,46 @@
     <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="28" width="16.21875" customWidth="1"/>
+    <col min="30" max="30" width="21.109375" customWidth="1"/>
+    <col min="31" max="31" width="20.33203125" customWidth="1"/>
+    <col min="32" max="32" width="44.88671875" customWidth="1"/>
+    <col min="33" max="33" width="27.6640625" customWidth="1"/>
+    <col min="34" max="34" width="16.21875" customWidth="1"/>
+    <col min="35" max="35" width="14.5546875" customWidth="1"/>
+    <col min="36" max="36" width="16.44140625" customWidth="1"/>
+    <col min="37" max="37" width="16" customWidth="1"/>
+    <col min="39" max="39" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.33203125" customWidth="1"/>
+    <col min="45" max="45" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>249</v>
+      </c>
       <c r="P1" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="R1" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>240</v>
       </c>
@@ -1339,11 +1432,150 @@
       <c r="O2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>250</v>
+      <c r="P2" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB2" s="19"/>
+      <c r="AD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>241</v>
       </c>
@@ -1389,8 +1621,150 @@
       <c r="O3" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="P3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB3" s="17"/>
+      <c r="AD3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>243</v>
       </c>
@@ -1436,8 +1810,150 @@
       <c r="O4" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="P4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB4" s="18"/>
+      <c r="AD4">
+        <v>0.63063003758980696</v>
+      </c>
+      <c r="AE4">
+        <v>0.41749964497097802</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL4">
+        <v>148.03546</v>
+      </c>
+      <c r="AM4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>6</v>
+      </c>
+      <c r="AO4">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AP4">
+        <v>-9.843</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0.43</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC4">
+        <v>137.91499999999999</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF4">
+        <v>121.274</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ4">
+        <v>3400270</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL4">
+        <v>1969</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>248</v>
       </c>
@@ -1483,8 +1999,150 @@
       <c r="O5" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="P5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB5" s="18"/>
+      <c r="AD5">
+        <v>0.48735679092814699</v>
+      </c>
+      <c r="AE5">
+        <v>0.343428378296882</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL5">
+        <v>177.47546</v>
+      </c>
+      <c r="AM5">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AN5">
+        <v>8</v>
+      </c>
+      <c r="AO5">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="AP5">
+        <v>-9.6890000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC5">
+        <v>172.304</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF5">
+        <v>100.07</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ5">
+        <v>5703798</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>245</v>
       </c>
@@ -1530,8 +2188,126 @@
       <c r="O6" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AD6">
+        <v>0.63038233414678002</v>
+      </c>
+      <c r="AE6">
+        <v>0.45423115657062002</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL6">
+        <v>233.40362999999999</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0.751</v>
+      </c>
+      <c r="AP6">
+        <v>-9.0129999999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0.749</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC6">
+        <v>217.124</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF6">
+        <v>119.29300000000001</v>
+      </c>
+      <c r="BG6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ6">
+        <v>3226795</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL6">
+        <v>1982</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>244</v>
       </c>
@@ -1577,8 +2353,128 @@
       <c r="O7" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="P7" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AD7">
+        <v>0.65104566083179405</v>
+      </c>
+      <c r="AE7">
+        <v>0.40172368550367799</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL7">
+        <v>209.60607999999999</v>
+      </c>
+      <c r="AM7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AP7">
+        <v>-4.5010000000000003</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0.371</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC7">
+        <v>198.69900000000001</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF7">
+        <v>129.738</v>
+      </c>
+      <c r="BG7">
+        <v>4</v>
+      </c>
+      <c r="BH7">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ7">
+        <v>6795666</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL7">
+        <v>2007</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>242</v>
       </c>
@@ -1624,8 +2520,128 @@
       <c r="O8" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="P8" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AD8">
+        <v>0.535292735511819</v>
+      </c>
+      <c r="AE8">
+        <v>0.38547055055582102</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL8">
+        <v>267.70240000000001</v>
+      </c>
+      <c r="AM8">
+        <v>2.2639999999999998</v>
+      </c>
+      <c r="AN8">
+        <v>5</v>
+      </c>
+      <c r="AO8">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="AP8">
+        <v>-9.3230000000000004</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC8">
+        <v>254.27</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF8">
+        <v>147.78200000000001</v>
+      </c>
+      <c r="BG8">
+        <v>3</v>
+      </c>
+      <c r="BH8">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ8">
+        <v>444964</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>246</v>
       </c>
@@ -1671,8 +2687,128 @@
       <c r="O9" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="P9" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AD9">
+        <v>0.55649560191295699</v>
+      </c>
+      <c r="AE9">
+        <v>0.26194117738084699</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL9">
+        <v>114.78158999999999</v>
+      </c>
+      <c r="AM9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>-17.302</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC9">
+        <v>114.782</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF9">
+        <v>111.78700000000001</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ9">
+        <v>276593</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>187</v>
@@ -1716,8 +2852,128 @@
       <c r="O10" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="P10" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AD10">
+        <v>0.80113644699668696</v>
+      </c>
+      <c r="AE10">
+        <v>0.60550713569057502</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL10">
+        <v>189.57015999999999</v>
+      </c>
+      <c r="AM10">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="AN10">
+        <v>4</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>-11.641999999999999</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0.16</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC10">
+        <v>181.023</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF10">
+        <v>101.43</v>
+      </c>
+      <c r="BG10">
+        <v>3</v>
+      </c>
+      <c r="BH10">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ10">
+        <v>90004</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>201</v>
@@ -1761,8 +3017,128 @@
       <c r="O11" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="P11" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AD11">
+        <v>0.42666785706940502</v>
+      </c>
+      <c r="AE11">
+        <v>0.332275746599068</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL11">
+        <v>269.81832000000003</v>
+      </c>
+      <c r="AM11">
+        <v>5.3</v>
+      </c>
+      <c r="AN11">
+        <v>4</v>
+      </c>
+      <c r="AO11">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="AP11">
+        <v>-13.496</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>208</v>
+      </c>
+      <c r="BC11">
+        <v>258.99</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF11">
+        <v>86.643000000000001</v>
+      </c>
+      <c r="BG11">
+        <v>4</v>
+      </c>
+      <c r="BH11">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ11">
+        <v>3996579</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL11">
+        <v>1984</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>214</v>
@@ -1806,8 +3182,126 @@
       <c r="O12" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AD12">
+        <v>0.55051369784821302</v>
+      </c>
+      <c r="AE12">
+        <v>0.42270564102939101</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL12">
+        <v>266.39627999999999</v>
+      </c>
+      <c r="AM12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AN12">
+        <v>7</v>
+      </c>
+      <c r="AO12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AP12">
+        <v>-6.6970000000000001</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC12">
+        <v>261.74700000000001</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF12">
+        <v>114.041</v>
+      </c>
+      <c r="BG12">
+        <v>4</v>
+      </c>
+      <c r="BH12">
+        <v>0.878</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ12">
+        <v>7684249</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>229</v>
@@ -1850,6 +3344,124 @@
       </c>
       <c r="O13" s="2" t="s">
         <v>235</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AD13">
+        <v>0.36003116646435102</v>
+      </c>
+      <c r="AE13">
+        <v>0.296268954311463</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL13">
+        <v>218.77506</v>
+      </c>
+      <c r="AM13">
+        <v>2.125</v>
+      </c>
+      <c r="AN13">
+        <v>5</v>
+      </c>
+      <c r="AO13">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AP13">
+        <v>-10.021000000000001</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC13">
+        <v>207.012</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>237</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF13">
+        <v>146.76499999999999</v>
+      </c>
+      <c r="BG13">
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>238</v>
+      </c>
+      <c r="BJ13">
+        <v>5967937</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>239</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1862,8 +3474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4114ED32-0CD3-46EE-9918-46C768A165F2}">
   <dimension ref="A1:BB27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM12"/>
+    <sheetView topLeftCell="AY1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:BB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data_processed/ExampleData.xlsx
+++ b/data_processed/ExampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tristan\Documents\Stevens Institute\CPE695\Project\AI-genre-prediction\data_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB36F7-B4D3-41C5-B1E4-9FF53C463139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA73AF82-3C22-4BF6-AA9B-101384627D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6529CB4-8DDE-4FC9-9766-B2D0C1164C9B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{C6529CB4-8DDE-4FC9-9766-B2D0C1164C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Desired Data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="272">
   <si>
     <t xml:space="preserve">analysis_sample_rate </t>
   </si>
@@ -798,9 +798,6 @@
     <t>interval2_count</t>
   </si>
   <si>
-    <t>interval0_count</t>
-  </si>
-  <si>
     <t>interval3_count</t>
   </si>
   <si>
@@ -847,6 +844,15 @@
   </si>
   <si>
     <t>3. Parse interval array into columns based on how many times each interval appears</t>
+  </si>
+  <si>
+    <t>Song title</t>
+  </si>
+  <si>
+    <t>Album/Single/EP</t>
+  </si>
+  <si>
+    <t>interval12_count</t>
   </si>
 </sst>
 </file>
@@ -985,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1007,11 +1013,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,54 +1329,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599F3483-8C17-4914-8059-43719F69286C}">
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="28" width="16.21875" customWidth="1"/>
-    <col min="30" max="30" width="21.109375" customWidth="1"/>
-    <col min="31" max="31" width="20.33203125" customWidth="1"/>
-    <col min="32" max="32" width="44.88671875" customWidth="1"/>
-    <col min="33" max="33" width="27.6640625" customWidth="1"/>
-    <col min="34" max="34" width="16.21875" customWidth="1"/>
-    <col min="35" max="35" width="14.5546875" customWidth="1"/>
-    <col min="36" max="36" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="28" width="16.28515625" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" customWidth="1"/>
+    <col min="31" max="31" width="20.28515625" customWidth="1"/>
+    <col min="32" max="32" width="44.85546875" customWidth="1"/>
+    <col min="33" max="33" width="27.7109375" customWidth="1"/>
+    <col min="34" max="34" width="16.28515625" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" customWidth="1"/>
+    <col min="36" max="36" width="16.42578125" customWidth="1"/>
     <col min="37" max="37" width="16" customWidth="1"/>
-    <col min="39" max="39" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.33203125" customWidth="1"/>
-    <col min="45" max="45" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" customWidth="1"/>
+    <col min="45" max="45" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="22" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O1" t="s">
         <v>249</v>
       </c>
@@ -1383,10 +1384,10 @@
         <v>250</v>
       </c>
       <c r="R1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>240</v>
       </c>
@@ -1432,14 +1433,14 @@
       <c r="O2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>252</v>
       </c>
       <c r="S2" s="16" t="s">
         <v>254</v>
@@ -1466,9 +1467,8 @@
         <v>261</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB2" s="19"/>
+        <v>271</v>
+      </c>
       <c r="AD2" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>241</v>
       </c>
@@ -1621,43 +1621,42 @@
       <c r="O3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB3" s="17"/>
+      <c r="P3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AD3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>243</v>
       </c>
@@ -1810,43 +1809,42 @@
       <c r="O4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="W4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB4" s="18"/>
+      <c r="P4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>267</v>
+      </c>
+      <c r="R4" t="s">
+        <v>267</v>
+      </c>
+      <c r="S4" t="s">
+        <v>267</v>
+      </c>
+      <c r="T4" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" t="s">
+        <v>267</v>
+      </c>
+      <c r="V4" t="s">
+        <v>267</v>
+      </c>
+      <c r="W4" t="s">
+        <v>267</v>
+      </c>
+      <c r="X4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>267</v>
+      </c>
       <c r="AD4">
         <v>0.63063003758980696</v>
       </c>
@@ -1953,7 +1951,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>248</v>
       </c>
@@ -1999,43 +1997,42 @@
       <c r="O5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="W5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="X5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB5" s="18"/>
+      <c r="P5" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>267</v>
+      </c>
+      <c r="R5" t="s">
+        <v>267</v>
+      </c>
+      <c r="S5" t="s">
+        <v>267</v>
+      </c>
+      <c r="T5" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" t="s">
+        <v>267</v>
+      </c>
+      <c r="V5" t="s">
+        <v>267</v>
+      </c>
+      <c r="W5" t="s">
+        <v>267</v>
+      </c>
+      <c r="X5" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>267</v>
+      </c>
       <c r="AD5">
         <v>0.48735679092814699</v>
       </c>
@@ -2142,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>245</v>
       </c>
@@ -2188,19 +2185,6 @@
       <c r="O6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
       <c r="AD6">
         <v>0.63038233414678002</v>
       </c>
@@ -2307,7 +2291,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>244</v>
       </c>
@@ -2353,21 +2337,9 @@
       <c r="O7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
+      <c r="P7" t="s">
+        <v>263</v>
+      </c>
       <c r="AD7">
         <v>0.65104566083179405</v>
       </c>
@@ -2474,7 +2446,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>242</v>
       </c>
@@ -2520,21 +2492,9 @@
       <c r="O8" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="P8" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
+      <c r="P8" t="s">
+        <v>264</v>
+      </c>
       <c r="AD8">
         <v>0.535292735511819</v>
       </c>
@@ -2641,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>246</v>
       </c>
@@ -2687,21 +2647,9 @@
       <c r="O9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="P9" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
+      <c r="P9" t="s">
+        <v>265</v>
+      </c>
       <c r="AD9">
         <v>0.55649560191295699</v>
       </c>
@@ -2808,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>187</v>
@@ -2852,21 +2800,9 @@
       <c r="O10" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
+      <c r="P10" t="s">
+        <v>266</v>
+      </c>
       <c r="AD10">
         <v>0.80113644699668696</v>
       </c>
@@ -2973,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>201</v>
@@ -3017,21 +2953,9 @@
       <c r="O11" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="P11" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
+      <c r="P11" t="s">
+        <v>268</v>
+      </c>
       <c r="AD11">
         <v>0.42666785706940502</v>
       </c>
@@ -3138,7 +3062,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>214</v>
@@ -3182,19 +3106,6 @@
       <c r="O12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
       <c r="AD12">
         <v>0.55051369784821302</v>
       </c>
@@ -3301,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>229</v>
@@ -3345,19 +3256,6 @@
       <c r="O13" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
       <c r="AD13">
         <v>0.36003116646435102</v>
       </c>
@@ -3474,64 +3372,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4114ED32-0CD3-46EE-9918-46C768A165F2}">
   <dimension ref="A1:BB27"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:BB12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="23.77734375" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" customWidth="1"/>
-    <col min="20" max="21" width="11.77734375" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="21" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
     <col min="26" max="26" width="6" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
     <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="8.109375" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" customWidth="1"/>
     <col min="31" max="31" width="20" customWidth="1"/>
-    <col min="32" max="32" width="15.6640625" customWidth="1"/>
-    <col min="33" max="33" width="18.77734375" customWidth="1"/>
-    <col min="34" max="34" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.77734375" customWidth="1"/>
+    <col min="39" max="39" width="18.7109375" customWidth="1"/>
     <col min="40" max="40" width="16" customWidth="1"/>
-    <col min="41" max="41" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.44140625" customWidth="1"/>
-    <col min="44" max="44" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.33203125" customWidth="1"/>
-    <col min="46" max="46" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.6640625" customWidth="1"/>
-    <col min="50" max="50" width="25.5546875" customWidth="1"/>
-    <col min="51" max="51" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="28.5546875" customWidth="1"/>
+    <col min="41" max="41" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.42578125" customWidth="1"/>
+    <col min="44" max="44" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.28515625" customWidth="1"/>
+    <col min="46" max="46" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.7109375" customWidth="1"/>
+    <col min="50" max="50" width="25.5703125" customWidth="1"/>
+    <col min="51" max="51" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3695,7 +3593,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3859,7 +3757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22050</v>
       </c>
@@ -4023,7 +3921,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22050</v>
       </c>
@@ -4187,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>22050</v>
       </c>
@@ -4351,7 +4249,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>22050</v>
       </c>
@@ -4515,7 +4413,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22050</v>
       </c>
@@ -4679,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22050</v>
       </c>
@@ -4843,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22050</v>
       </c>
@@ -5007,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22050</v>
       </c>
@@ -5171,7 +5069,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22050</v>
       </c>
@@ -5335,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22050</v>
       </c>
@@ -5499,8 +5397,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>240</v>
       </c>
@@ -5547,7 +5452,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>241</v>
       </c>
@@ -5627,7 +5532,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>243</v>
       </c>
@@ -5707,7 +5612,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>248</v>
       </c>
@@ -5751,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>245</v>
       </c>
@@ -5795,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>244</v>
       </c>
@@ -5839,7 +5744,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>242</v>
       </c>
@@ -5883,7 +5788,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>246</v>
       </c>
@@ -5927,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" t="s">
         <v>187</v>
@@ -5969,7 +5874,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>201</v>
@@ -6011,7 +5916,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>214</v>
@@ -6053,7 +5958,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" t="s">
         <v>229</v>
